--- a/data/Insuit/litter_mass.xlsx
+++ b/data/Insuit/litter_mass.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="17">
   <si>
     <t>Group</t>
   </si>
@@ -27,10 +27,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Mass</t>
+    <t>value</t>
   </si>
   <si>
-    <t>Decomposition_time</t>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Sampling_time</t>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>stem</t>
+  </si>
+  <si>
+    <t>mass</t>
   </si>
   <si>
     <t>N1</t>
@@ -68,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,6 +97,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -105,8 +119,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,36 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -158,9 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -182,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,13 +220,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,13 +229,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +268,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,31 +310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,43 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +441,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,15 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -482,6 +503,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,30 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,145 +549,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,20 +1062,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="22.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="18.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="9.18181818181818"/>
+    <col min="5" max="5" width="9.18181818181818"/>
+    <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,2526 +1094,2905 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4">
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" s="4">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4">
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D35" s="5">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4">
         <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4">
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4">
         <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5">
         <v>5</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4">
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4">
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" s="5">
         <v>5</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="5">
         <v>5</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51" s="5">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52" s="4">
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B54" s="4">
         <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" s="5">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56" s="4">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D56" s="5">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D57" s="5">
-        <v>5</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B58" s="4">
         <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D58" s="5">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D59" s="5">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B60" s="4">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B62" s="4">
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" s="5">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B64" s="4">
         <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" s="5">
         <v>5</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5">
         <v>3.8</v>
       </c>
-      <c r="E65">
-        <v>60</v>
-      </c>
-      <c r="F65" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>60</v>
+      </c>
+      <c r="G65" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" s="4">
         <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="5">
         <v>3.4</v>
       </c>
-      <c r="E66">
-        <v>60</v>
-      </c>
-      <c r="F66" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="5">
         <v>3.4</v>
       </c>
-      <c r="E67">
-        <v>60</v>
-      </c>
-      <c r="F67" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" s="4">
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="5">
         <v>4</v>
       </c>
-      <c r="E68">
-        <v>60</v>
-      </c>
-      <c r="F68" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>60</v>
+      </c>
+      <c r="G68" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="4">
         <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="5">
         <v>4</v>
       </c>
-      <c r="E69">
-        <v>60</v>
-      </c>
-      <c r="F69" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>60</v>
+      </c>
+      <c r="G69" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="5">
         <v>4.6</v>
       </c>
-      <c r="E70">
-        <v>60</v>
-      </c>
-      <c r="F70" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>60</v>
+      </c>
+      <c r="G70" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B71" s="4">
         <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="5">
         <v>3.1</v>
       </c>
-      <c r="E71">
-        <v>60</v>
-      </c>
-      <c r="F71" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>60</v>
+      </c>
+      <c r="G71" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="5">
         <v>3.5</v>
       </c>
-      <c r="E72">
-        <v>60</v>
-      </c>
-      <c r="F72" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B73" s="4">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="5">
         <v>3.8</v>
       </c>
-      <c r="E73">
-        <v>60</v>
-      </c>
-      <c r="F73" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>60</v>
+      </c>
+      <c r="G73" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="5">
         <v>3.9</v>
       </c>
-      <c r="E74">
-        <v>60</v>
-      </c>
-      <c r="F74" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>60</v>
+      </c>
+      <c r="G74" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B75" s="4">
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="5">
         <v>3.6</v>
       </c>
-      <c r="E75">
-        <v>60</v>
-      </c>
-      <c r="F75" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+      <c r="G75" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76" s="4">
         <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="5">
         <v>3.8</v>
       </c>
-      <c r="E76">
-        <v>60</v>
-      </c>
-      <c r="F76" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>60</v>
+      </c>
+      <c r="G76" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B77" s="4">
         <v>3</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="5">
         <v>3.9</v>
       </c>
-      <c r="E77">
-        <v>60</v>
-      </c>
-      <c r="F77" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>60</v>
+      </c>
+      <c r="G77" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4">
         <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="5">
         <v>3.8</v>
       </c>
-      <c r="E78">
-        <v>60</v>
-      </c>
-      <c r="F78" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="G78" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B79" s="4">
         <v>5</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="5">
         <v>3.4</v>
       </c>
-      <c r="E79">
-        <v>60</v>
-      </c>
-      <c r="F79" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="G79" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="5">
         <v>4.1</v>
       </c>
-      <c r="E80">
-        <v>60</v>
-      </c>
-      <c r="F80" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" s="4">
         <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="5">
         <v>3.3</v>
       </c>
-      <c r="E81">
-        <v>60</v>
-      </c>
-      <c r="F81" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+      <c r="G81" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="5">
         <v>3.5</v>
       </c>
-      <c r="E82">
-        <v>60</v>
-      </c>
-      <c r="F82" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>60</v>
+      </c>
+      <c r="G82" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B83" s="4">
         <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5">
         <v>4.3</v>
       </c>
-      <c r="E83">
-        <v>60</v>
-      </c>
-      <c r="F83" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="5">
         <v>3.8</v>
       </c>
-      <c r="E84">
-        <v>60</v>
-      </c>
-      <c r="F84" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5">
         <v>4</v>
       </c>
-      <c r="E85">
-        <v>60</v>
-      </c>
-      <c r="F85" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>60</v>
+      </c>
+      <c r="G85" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B86" s="4">
         <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" s="5">
         <v>3.7</v>
       </c>
-      <c r="E86">
-        <v>60</v>
-      </c>
-      <c r="F86" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+      <c r="G86" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="5">
         <v>3.7</v>
       </c>
-      <c r="E87">
-        <v>60</v>
-      </c>
-      <c r="F87" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
+      </c>
+      <c r="G87" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B88" s="4">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="5">
         <v>3.8</v>
       </c>
-      <c r="E88">
-        <v>60</v>
-      </c>
-      <c r="F88" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+      <c r="G88" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B89" s="4">
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="5">
         <v>3.7</v>
       </c>
-      <c r="E89">
-        <v>60</v>
-      </c>
-      <c r="F89" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>60</v>
+      </c>
+      <c r="G89" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" s="5">
         <v>3.9</v>
       </c>
-      <c r="E90">
-        <v>60</v>
-      </c>
-      <c r="F90" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>60</v>
+      </c>
+      <c r="G90" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B91" s="4">
         <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" s="5">
         <v>4.1</v>
       </c>
-      <c r="E91">
-        <v>60</v>
-      </c>
-      <c r="F91" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>60</v>
+      </c>
+      <c r="G91" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B92" s="4">
         <v>3</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="5">
         <v>3.6</v>
       </c>
-      <c r="E92">
-        <v>60</v>
-      </c>
-      <c r="F92" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B93" s="4">
         <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="5">
         <v>3.5</v>
       </c>
-      <c r="E93">
-        <v>60</v>
-      </c>
-      <c r="F93" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>60</v>
+      </c>
+      <c r="G93" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B94" s="4">
         <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94" s="5">
         <v>3.8</v>
       </c>
-      <c r="E94">
-        <v>60</v>
-      </c>
-      <c r="F94" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>60</v>
+      </c>
+      <c r="G94" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="5">
         <v>4</v>
       </c>
-      <c r="E95">
-        <v>60</v>
-      </c>
-      <c r="F95" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>60</v>
+      </c>
+      <c r="G95" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B96" s="4">
         <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" s="5">
         <v>3.8</v>
       </c>
-      <c r="E96">
-        <v>60</v>
-      </c>
-      <c r="F96" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>60</v>
+      </c>
+      <c r="G96" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B97" s="4">
         <v>3</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="5">
         <v>3.8</v>
       </c>
-      <c r="E97">
-        <v>60</v>
-      </c>
-      <c r="F97" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+      <c r="G97" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B98" s="4">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" s="5">
         <v>3.9</v>
       </c>
-      <c r="E98">
-        <v>60</v>
-      </c>
-      <c r="F98" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>60</v>
+      </c>
+      <c r="G98" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B99" s="4">
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" s="5">
         <v>3.4</v>
       </c>
-      <c r="E99">
-        <v>60</v>
-      </c>
-      <c r="F99" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>60</v>
+      </c>
+      <c r="G99" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D100" s="5">
         <v>4.9</v>
       </c>
-      <c r="E100">
-        <v>60</v>
-      </c>
-      <c r="F100" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>60</v>
+      </c>
+      <c r="G100" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B101" s="4">
         <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101" s="5">
         <v>4.8</v>
       </c>
-      <c r="E101">
-        <v>60</v>
-      </c>
-      <c r="F101" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101">
+        <v>60</v>
+      </c>
+      <c r="G101" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B102" s="4">
         <v>3</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" s="5">
         <v>4.7</v>
       </c>
-      <c r="E102">
-        <v>60</v>
-      </c>
-      <c r="F102" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>60</v>
+      </c>
+      <c r="G102" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B103" s="4">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D103" s="5">
         <v>4.8</v>
       </c>
-      <c r="E103">
-        <v>60</v>
-      </c>
-      <c r="F103" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103">
+        <v>60</v>
+      </c>
+      <c r="G103" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" s="5">
         <v>4.8</v>
       </c>
-      <c r="E104">
-        <v>60</v>
-      </c>
-      <c r="F104" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104">
+        <v>60</v>
+      </c>
+      <c r="G104" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" s="5">
         <v>4.9</v>
       </c>
-      <c r="E105">
-        <v>60</v>
-      </c>
-      <c r="F105" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <v>60</v>
+      </c>
+      <c r="G105" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B106" s="4">
         <v>3</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" s="5">
         <v>4.8</v>
       </c>
-      <c r="E106">
-        <v>60</v>
-      </c>
-      <c r="F106" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>60</v>
+      </c>
+      <c r="G106" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" s="5">
         <v>4.4</v>
       </c>
-      <c r="E107">
-        <v>60</v>
-      </c>
-      <c r="F107" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>60</v>
+      </c>
+      <c r="G107" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B108" s="4">
         <v>1</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D108" s="5">
         <v>4.8</v>
       </c>
-      <c r="E108">
-        <v>60</v>
-      </c>
-      <c r="F108" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>60</v>
+      </c>
+      <c r="G108" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B109" s="4">
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D109" s="5">
         <v>4.9</v>
       </c>
-      <c r="E109">
-        <v>60</v>
-      </c>
-      <c r="F109" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>60</v>
+      </c>
+      <c r="G109" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B110" s="4">
         <v>3</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D110" s="5">
         <v>4.9</v>
       </c>
-      <c r="E110">
-        <v>60</v>
-      </c>
-      <c r="F110" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110">
+        <v>60</v>
+      </c>
+      <c r="G110" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B111" s="4">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D111" s="5">
         <v>4.6</v>
       </c>
-      <c r="E111">
-        <v>60</v>
-      </c>
-      <c r="F111" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>60</v>
+      </c>
+      <c r="G111" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B112" s="4">
         <v>1</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D112" s="5">
         <v>4.8</v>
       </c>
-      <c r="E112">
-        <v>60</v>
-      </c>
-      <c r="F112" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>60</v>
+      </c>
+      <c r="G112" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B113" s="4">
         <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D113" s="5">
         <v>4.7</v>
       </c>
-      <c r="E113">
-        <v>60</v>
-      </c>
-      <c r="F113" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>60</v>
+      </c>
+      <c r="G113" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B114" s="4">
         <v>3</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D114" s="5">
         <v>4.9</v>
       </c>
-      <c r="E114">
-        <v>60</v>
-      </c>
-      <c r="F114" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <v>60</v>
+      </c>
+      <c r="G114" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B115" s="4">
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D115" s="5">
         <v>4.9</v>
       </c>
-      <c r="E115">
-        <v>60</v>
-      </c>
-      <c r="F115" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B116" s="4">
         <v>1</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D116" s="5">
         <v>4.8</v>
       </c>
-      <c r="E116">
-        <v>60</v>
-      </c>
-      <c r="F116" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B117" s="4">
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D117" s="5">
         <v>4.9</v>
       </c>
-      <c r="E117">
-        <v>60</v>
-      </c>
-      <c r="F117" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B118" s="4">
         <v>3</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D118" s="5">
         <v>3.7</v>
       </c>
-      <c r="E118">
-        <v>60</v>
-      </c>
-      <c r="F118" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>60</v>
+      </c>
+      <c r="G118" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B119" s="4">
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D119" s="5">
         <v>4.7</v>
       </c>
-      <c r="E119">
-        <v>60</v>
-      </c>
-      <c r="F119" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <v>60</v>
+      </c>
+      <c r="G119" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B120" s="4">
         <v>1</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D120" s="5">
         <v>4.9</v>
       </c>
-      <c r="E120">
-        <v>60</v>
-      </c>
-      <c r="F120" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>60</v>
+      </c>
+      <c r="G120" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B121" s="4">
         <v>2</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D121" s="5">
         <v>4.6</v>
       </c>
-      <c r="E121">
-        <v>60</v>
-      </c>
-      <c r="F121" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>60</v>
+      </c>
+      <c r="G121" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B122" s="4">
         <v>3</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D122" s="5">
         <v>4.9</v>
       </c>
-      <c r="E122">
-        <v>60</v>
-      </c>
-      <c r="F122" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>60</v>
+      </c>
+      <c r="G122" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B123" s="4">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D123" s="5">
         <v>4.9</v>
       </c>
-      <c r="E123">
-        <v>60</v>
-      </c>
-      <c r="F123" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>60</v>
+      </c>
+      <c r="G123" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B124" s="4">
         <v>1</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D124" s="5">
         <v>4.7</v>
       </c>
-      <c r="E124">
-        <v>60</v>
-      </c>
-      <c r="F124" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>60</v>
+      </c>
+      <c r="G124" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B125" s="4">
         <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D125" s="5">
         <v>4.4</v>
       </c>
-      <c r="E125">
-        <v>60</v>
-      </c>
-      <c r="F125" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125">
+        <v>60</v>
+      </c>
+      <c r="G125" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B126" s="4">
         <v>3</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D126" s="5">
         <v>4.7</v>
       </c>
-      <c r="E126">
-        <v>60</v>
-      </c>
-      <c r="F126" s="7">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126">
+        <v>60</v>
+      </c>
+      <c r="G126" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B127" s="4">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D127" s="5">
         <v>4.8</v>
       </c>
-      <c r="E127">
-        <v>60</v>
-      </c>
-      <c r="F127" s="7">
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127">
+        <v>60</v>
+      </c>
+      <c r="G127" s="7">
         <v>44642</v>
       </c>
     </row>
